--- a/Audit_Code/public/PCI_DSS_4_Single_TSP.xlsx
+++ b/Audit_Code/public/PCI_DSS_4_Single_TSP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97154\OneDrive\Desktop\New2folder\AAAAAAA-Clients and Prospectives\GRC Abdullah\PCI sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ab\Desktop\Compliance\Audit_Code\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790929A5-917C-4C38-A097-778DCE49E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="PCI DSS v4 sheet" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PCI DSS v4 sheet'!$A$1:$F$257</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2236,7 +2235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2615,12 +2614,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BPW257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210:XFD210"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6965,7 +6964,6 @@
         <v>3</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" ref="B43" si="0">B41+0.1</f>
         <v>3.4</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -6984,7 +6982,6 @@
         <v>3</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" ref="B44" si="1">B42+0.1</f>
         <v>3.4</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -8434,7 +8431,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>8</v>
       </c>
@@ -9330,7 +9327,7 @@
       </c>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>10</v>
       </c>
@@ -9366,7 +9363,7 @@
       </c>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>10</v>
       </c>
@@ -9384,7 +9381,7 @@
       </c>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>10</v>
       </c>
@@ -9438,7 +9435,7 @@
       </c>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>10</v>
       </c>
@@ -10166,7 +10163,7 @@
       </c>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>12</v>
       </c>
@@ -10909,7 +10906,7 @@
       <c r="F257" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F257" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F257"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Audit_Code/public/PCI_DSS_4_Single_TSP.xlsx
+++ b/Audit_Code/public/PCI_DSS_4_Single_TSP.xlsx
@@ -2590,8 +2590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="153" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="357" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="153" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="204" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="153" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="408" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="153" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="306" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="153" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="153" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>3</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3</v>
       </c>
@@ -3248,7 +3248,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="153" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>3</v>
       </c>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>3</v>
       </c>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="204" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>3</v>
       </c>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>3</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>3</v>
       </c>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="204" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>3</v>
       </c>
@@ -3360,12 +3360,11 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>3</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" ref="B43:B44" si="0">B41+0.1</f>
         <v>3.4</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -3379,12 +3378,11 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="357" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>3</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -3418,7 +3416,7 @@
       </c>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="382.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>3</v>
       </c>
@@ -3438,7 +3436,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>3</v>
       </c>
@@ -3476,7 +3474,7 @@
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="408" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>3</v>
       </c>
@@ -3512,7 +3510,7 @@
       </c>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>3</v>
       </c>
@@ -3550,7 +3548,7 @@
       </c>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="102" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>3</v>
       </c>
@@ -3640,7 +3638,7 @@
       </c>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="357" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>3</v>
       </c>
@@ -3676,7 +3674,7 @@
       </c>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="306" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>3</v>
       </c>
@@ -3712,7 +3710,7 @@
       </c>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" ht="357" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="306" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>3</v>
       </c>
@@ -3730,7 +3728,7 @@
       </c>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="306" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>3</v>
       </c>
@@ -3748,7 +3746,7 @@
       </c>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>4</v>
       </c>
@@ -3766,7 +3764,7 @@
       </c>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>4</v>
       </c>
@@ -3784,7 +3782,7 @@
       </c>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="408" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>4</v>
       </c>
@@ -3802,7 +3800,7 @@
       </c>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>4</v>
       </c>
@@ -3822,7 +3820,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>4</v>
       </c>
@@ -3842,7 +3840,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>4</v>
       </c>
@@ -3860,7 +3858,7 @@
       </c>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>4</v>
       </c>
@@ -3878,7 +3876,7 @@
       </c>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>5</v>
       </c>
@@ -3896,7 +3894,7 @@
       </c>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>5</v>
       </c>
@@ -3914,7 +3912,7 @@
       </c>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" ht="382.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>5</v>
       </c>
@@ -3932,7 +3930,7 @@
       </c>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>5</v>
       </c>
@@ -3950,7 +3948,7 @@
       </c>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>5</v>
       </c>
@@ -3968,7 +3966,7 @@
       </c>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" ht="369.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>5</v>
       </c>
@@ -4006,7 +4004,7 @@
       </c>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" ht="306" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>5</v>
       </c>
@@ -4024,7 +4022,7 @@
       </c>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>5</v>
       </c>
@@ -4044,7 +4042,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>5</v>
       </c>
@@ -4064,7 +4062,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>5</v>
       </c>
@@ -4082,7 +4080,7 @@
       </c>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>5</v>
       </c>
@@ -4100,7 +4098,7 @@
       </c>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>5</v>
       </c>
@@ -4120,7 +4118,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>6</v>
       </c>
@@ -4138,7 +4136,7 @@
       </c>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>6</v>
       </c>
@@ -4156,7 +4154,7 @@
       </c>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="306" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>6</v>
       </c>
@@ -4174,7 +4172,7 @@
       </c>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>6</v>
       </c>
@@ -4192,7 +4190,7 @@
       </c>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>6</v>
       </c>
@@ -4210,7 +4208,7 @@
       </c>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="293.25" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>6</v>
       </c>
@@ -4264,7 +4262,7 @@
       </c>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="1:6" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>6</v>
       </c>
@@ -4320,7 +4318,7 @@
       </c>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>6</v>
       </c>
@@ -4340,7 +4338,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>6</v>
       </c>
@@ -4378,7 +4376,7 @@
       </c>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>6</v>
       </c>
@@ -4396,7 +4394,7 @@
       </c>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="102" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -4414,7 +4412,7 @@
       </c>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="1:6" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>6</v>
       </c>
@@ -4432,7 +4430,7 @@
       </c>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>6</v>
       </c>
@@ -4450,7 +4448,7 @@
       </c>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="102" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>6</v>
       </c>
@@ -4468,7 +4466,7 @@
       </c>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>7</v>
       </c>
@@ -4504,7 +4502,7 @@
       </c>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>7</v>
       </c>
@@ -4522,7 +4520,7 @@
       </c>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="153" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>7</v>
       </c>
@@ -4558,7 +4556,7 @@
       </c>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="306" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>7</v>
       </c>
@@ -4578,7 +4576,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>7</v>
       </c>
@@ -4618,7 +4616,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>7</v>
       </c>
@@ -4636,7 +4634,7 @@
       </c>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" ht="204" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="153" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>7</v>
       </c>
@@ -4654,7 +4652,7 @@
       </c>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="153" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>7</v>
       </c>
@@ -4690,7 +4688,7 @@
       </c>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4708,7 +4706,7 @@
       </c>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>8</v>
       </c>
@@ -4780,7 +4778,7 @@
       </c>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:6" ht="408" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>8</v>
       </c>
@@ -4834,7 +4832,7 @@
       </c>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>8</v>
       </c>
@@ -4852,7 +4850,7 @@
       </c>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>8</v>
       </c>
@@ -4870,7 +4868,7 @@
       </c>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="1:6" ht="153" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>8</v>
       </c>
@@ -4888,7 +4886,7 @@
       </c>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>8</v>
       </c>
@@ -4924,7 +4922,7 @@
       </c>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:6" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>8</v>
       </c>
@@ -4942,7 +4940,7 @@
       </c>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="1:6" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>8</v>
       </c>
@@ -4960,7 +4958,7 @@
       </c>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>8</v>
       </c>
@@ -4978,7 +4976,7 @@
       </c>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" ht="204" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>8</v>
       </c>
@@ -5014,7 +5012,7 @@
       </c>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="1:6" ht="369.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>8</v>
       </c>
@@ -5032,7 +5030,7 @@
       </c>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="357" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>8</v>
       </c>
@@ -5050,7 +5048,7 @@
       </c>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>8</v>
       </c>
@@ -5070,7 +5068,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>8</v>
       </c>
@@ -5088,7 +5086,7 @@
       </c>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>8</v>
       </c>
@@ -5126,7 +5124,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>8</v>
       </c>
@@ -5144,7 +5142,7 @@
       </c>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="1:6" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>8</v>
       </c>
@@ -5184,7 +5182,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>8</v>
       </c>
@@ -5224,7 +5222,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -5242,7 +5240,7 @@
       </c>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>9</v>
       </c>
@@ -5296,7 +5294,7 @@
       </c>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="153" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>9</v>
       </c>
@@ -5314,7 +5312,7 @@
       </c>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="1:6" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="153" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>9</v>
       </c>
@@ -5350,7 +5348,7 @@
       </c>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>9</v>
       </c>
@@ -5368,7 +5366,7 @@
       </c>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="306" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>9</v>
       </c>
@@ -5386,7 +5384,7 @@
       </c>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>9</v>
       </c>
@@ -5404,7 +5402,7 @@
       </c>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>9</v>
       </c>
@@ -5422,7 +5420,7 @@
       </c>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="306" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>9</v>
       </c>
@@ -5476,7 +5474,7 @@
       </c>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>9</v>
       </c>
@@ -5494,7 +5492,7 @@
       </c>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="1:6" ht="153" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>9</v>
       </c>
@@ -5512,7 +5510,7 @@
       </c>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>9</v>
       </c>
@@ -5530,7 +5528,7 @@
       </c>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="1:6" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>9</v>
       </c>
@@ -5566,7 +5564,7 @@
       </c>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="293.25" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>9</v>
       </c>
@@ -5584,7 +5582,7 @@
       </c>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:6" ht="408" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>9</v>
       </c>
@@ -5602,7 +5600,7 @@
       </c>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="408" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>9</v>
       </c>
@@ -5620,7 +5618,7 @@
       </c>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="1:6" ht="306" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>9</v>
       </c>
@@ -5638,7 +5636,7 @@
       </c>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>9</v>
       </c>
@@ -5656,7 +5654,7 @@
       </c>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="1:6" ht="369.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>9</v>
       </c>
@@ -5694,7 +5692,7 @@
       </c>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="1:6" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>10</v>
       </c>
@@ -5712,7 +5710,7 @@
       </c>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="1:6" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>10</v>
       </c>
@@ -5748,7 +5746,7 @@
       </c>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>10</v>
       </c>
@@ -5802,7 +5800,7 @@
       </c>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>10</v>
       </c>
@@ -5820,7 +5818,7 @@
       </c>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="1:6" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>10</v>
       </c>
@@ -5856,7 +5854,7 @@
       </c>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>10</v>
       </c>
@@ -5910,7 +5908,7 @@
       </c>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="1:6" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>10</v>
       </c>
@@ -5928,7 +5926,7 @@
       </c>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" spans="1:6" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5946,7 +5944,7 @@
       </c>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>10</v>
       </c>
@@ -5984,7 +5982,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="204" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>10</v>
       </c>
@@ -6002,7 +6000,7 @@
       </c>
       <c r="F186" s="6"/>
     </row>
-    <row r="187" spans="1:6" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -6022,7 +6020,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="102" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>10</v>
       </c>
@@ -6040,7 +6038,7 @@
       </c>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>10</v>
       </c>
@@ -6094,7 +6092,7 @@
       </c>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" spans="1:6" ht="369.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>10</v>
       </c>
@@ -6112,7 +6110,7 @@
       </c>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>10</v>
       </c>
@@ -6130,7 +6128,7 @@
       </c>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="1:6" ht="408" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
@@ -6162,7 +6160,7 @@
       </c>
       <c r="F195" s="6"/>
     </row>
-    <row r="196" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>11</v>
       </c>
@@ -6180,7 +6178,7 @@
       </c>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>11</v>
       </c>
@@ -6198,7 +6196,7 @@
       </c>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>11</v>
       </c>
@@ -6216,7 +6214,7 @@
       </c>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>11</v>
       </c>
@@ -6252,7 +6250,7 @@
       </c>
       <c r="F200" s="5"/>
     </row>
-    <row r="201" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="357" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>11</v>
       </c>
@@ -6272,7 +6270,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="382.5" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>11</v>
       </c>
@@ -6292,7 +6290,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="357" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>11</v>
       </c>
@@ -6310,7 +6308,7 @@
       </c>
       <c r="F203" s="5"/>
     </row>
-    <row r="204" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="357" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>11</v>
       </c>
@@ -6328,7 +6326,7 @@
       </c>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="306" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>11</v>
       </c>
@@ -6364,7 +6362,7 @@
       </c>
       <c r="F206" s="5"/>
     </row>
-    <row r="207" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>11</v>
       </c>
@@ -6382,7 +6380,7 @@
       </c>
       <c r="F207" s="5"/>
     </row>
-    <row r="208" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>11</v>
       </c>
@@ -6400,7 +6398,7 @@
       </c>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>11</v>
       </c>
@@ -6436,7 +6434,7 @@
       </c>
       <c r="F210" s="5"/>
     </row>
-    <row r="211" spans="1:6" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>11</v>
       </c>
@@ -6454,7 +6452,7 @@
       </c>
       <c r="F211" s="5"/>
     </row>
-    <row r="212" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>11</v>
       </c>
@@ -6472,7 +6470,7 @@
       </c>
       <c r="F212" s="5"/>
     </row>
-    <row r="213" spans="1:6" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>11</v>
       </c>
@@ -6490,7 +6488,7 @@
       </c>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>11</v>
       </c>
@@ -6510,7 +6508,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>11</v>
       </c>
@@ -6528,7 +6526,7 @@
       </c>
       <c r="F215" s="5"/>
     </row>
-    <row r="216" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>11</v>
       </c>
@@ -6548,7 +6546,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>12</v>
       </c>
@@ -6566,7 +6564,7 @@
       </c>
       <c r="F217" s="5"/>
     </row>
-    <row r="218" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>12</v>
       </c>
@@ -6584,7 +6582,7 @@
       </c>
       <c r="F218" s="5"/>
     </row>
-    <row r="219" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>12</v>
       </c>
@@ -6602,7 +6600,7 @@
       </c>
       <c r="F219" s="5"/>
     </row>
-    <row r="220" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="242.25" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>12</v>
       </c>
@@ -6640,7 +6638,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="408" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>12</v>
       </c>
@@ -6658,7 +6656,7 @@
       </c>
       <c r="F222" s="5"/>
     </row>
-    <row r="223" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="408" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>12</v>
       </c>
@@ -6698,7 +6696,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>12</v>
       </c>
@@ -6734,7 +6732,7 @@
       </c>
       <c r="F226" s="5"/>
     </row>
-    <row r="227" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>12</v>
       </c>
@@ -6752,7 +6750,7 @@
       </c>
       <c r="F227" s="5"/>
     </row>
-    <row r="228" spans="1:6" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>12</v>
       </c>
@@ -6788,7 +6786,7 @@
       </c>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" spans="1:6" ht="382.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="204" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>12</v>
       </c>
@@ -6808,7 +6806,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>12</v>
       </c>
@@ -6828,7 +6826,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>12</v>
       </c>
@@ -6846,7 +6844,7 @@
       </c>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>12</v>
       </c>
@@ -6866,7 +6864,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>12</v>
       </c>
@@ -6884,7 +6882,7 @@
       </c>
       <c r="F234" s="5"/>
     </row>
-    <row r="235" spans="1:6" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>12</v>
       </c>
@@ -6904,7 +6902,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>12</v>
       </c>
@@ -6924,7 +6922,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>12</v>
       </c>
@@ -6942,7 +6940,7 @@
       </c>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>12</v>
       </c>
@@ -6960,7 +6958,7 @@
       </c>
       <c r="F238" s="5"/>
     </row>
-    <row r="239" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="408" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>12</v>
       </c>
@@ -6978,7 +6976,7 @@
       </c>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="1:6" ht="204" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>12</v>
       </c>
@@ -6996,7 +6994,7 @@
       </c>
       <c r="F240" s="5"/>
     </row>
-    <row r="241" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>12</v>
       </c>
@@ -7014,7 +7012,7 @@
       </c>
       <c r="F241" s="5"/>
     </row>
-    <row r="242" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>12</v>
       </c>
@@ -7032,7 +7030,7 @@
       </c>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>12</v>
       </c>
@@ -7086,7 +7084,7 @@
       </c>
       <c r="F245" s="5"/>
     </row>
-    <row r="246" spans="1:6" ht="204" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>12</v>
       </c>
@@ -7104,7 +7102,7 @@
       </c>
       <c r="F246" s="5"/>
     </row>
-    <row r="247" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>12</v>
       </c>
@@ -7122,7 +7120,7 @@
       </c>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>12</v>
       </c>
@@ -7140,7 +7138,7 @@
       </c>
       <c r="F248" s="5"/>
     </row>
-    <row r="249" spans="1:6" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>12</v>
       </c>
@@ -7158,7 +7156,7 @@
       </c>
       <c r="F249" s="5"/>
     </row>
-    <row r="250" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>12</v>
       </c>
@@ -7178,7 +7176,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>12</v>
       </c>
@@ -7196,7 +7194,7 @@
       </c>
       <c r="F251" s="6"/>
     </row>
-    <row r="252" spans="1:6" ht="357" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>12</v>
       </c>
@@ -7216,7 +7214,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>12</v>
       </c>
@@ -7254,7 +7252,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="318.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>571</v>
       </c>
@@ -7290,7 +7288,7 @@
       </c>
       <c r="F256" s="5"/>
     </row>
-    <row r="257" spans="1:6" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>571</v>
       </c>
